--- a/nameless.xlsx
+++ b/nameless.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>website</t>
   </si>
@@ -34,19 +34,10 @@
     <t>nate</t>
   </si>
   <si>
-    <t>daum</t>
-  </si>
-  <si>
-    <t>gmail</t>
-  </si>
-  <si>
     <t>bizforms</t>
   </si>
   <si>
     <t>etaxkorea</t>
-  </si>
-  <si>
-    <t>TheBill</t>
   </si>
   <si>
     <t>innotax14</t>
@@ -437,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,10 +461,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,10 +472,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,10 +483,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,47 +494,32 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
